--- a/data/income_statement/3digits/total/251_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/251_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>251-Manufacture of structural metal products</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>251-Manufacture of structural metal products</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>6719491.786979999</v>
@@ -956,40 +862,45 @@
         <v>7237061.290680001</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>10199676.48103</v>
+        <v>10205726.12303</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>11465965.30243</v>
+        <v>11479484.25855</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>13172150.61841</v>
+        <v>13192739.04254</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>15040054.76651</v>
+        <v>15266902.96388</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>15155142.30789</v>
+        <v>16985089.69447</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>18907294.16268</v>
+        <v>18919748.10976</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>21722566.22494</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>25156353.26563</v>
+        <v>25194407.30044</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>25907028.65395</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>26167611.75442</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>33385339.824</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>4871757.50802</v>
+        <v>4871757.508020001</v>
       </c>
       <c r="D6" s="48" t="n">
         <v>5781716.54412</v>
@@ -998,34 +909,39 @@
         <v>7998599.976340001</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>8864177.648119999</v>
+        <v>8871388.088529998</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>10382026.4301</v>
+        <v>10396649.21422</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>12155769.3103</v>
+        <v>12361852.96883</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>12239143.90338</v>
+        <v>13678190.17272</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>15929126.57025</v>
+        <v>15940836.41812</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>17986197.71679</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>20799041.43234</v>
+        <v>20836888.31086</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>20389991.35804</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>20629493.65908</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>26284911.923</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>1765081.83411</v>
@@ -1034,76 +950,86 @@
         <v>1369781.68061</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>2073904.82864</v>
+        <v>2079954.47064</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>2471959.61438</v>
+        <v>2478229.413230001</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>2654410.45046</v>
+        <v>2660330.01423</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>2713185.80729</v>
+        <v>2732042.439</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>2754015.33181</v>
+        <v>3076469.24062</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>2721485.67682</v>
+        <v>2721670.71512</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>3437301.46924</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>3973691.27014</v>
+        <v>3973797.03464</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>5176229.660429999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>5195275.31988</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>6697696.865</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>82652.44485</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>85563.06595</v>
+        <v>85563.06594999999</v>
       </c>
       <c r="E8" s="48" t="n">
         <v>127171.67605</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>129828.03993</v>
+        <v>129866.75679</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>135713.73785</v>
+        <v>135759.81409</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>171099.64892</v>
+        <v>173007.55605</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>161983.0727</v>
+        <v>230430.28113</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>256681.91561</v>
+        <v>257240.97652</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>299067.03891</v>
+        <v>299067.0389099999</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>383620.56315</v>
+        <v>383721.95494</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>340807.63548</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>342842.77546</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>402731.036</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>58249.9716</v>
@@ -1115,16 +1041,16 @@
         <v>80734.5465</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>104104.3173</v>
+        <v>104159.24495</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>96002.77582000001</v>
+        <v>96298.19582000001</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>130934.83448</v>
+        <v>132292.99074</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>153087.52068</v>
+        <v>163701.61714</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>182896.7329</v>
@@ -1133,16 +1059,21 @@
         <v>266699.5856</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>388534.8807</v>
+        <v>388579.2999299999</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>297502.92889</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>299908.7830999999</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>992059.448</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>32021.25202</v>
@@ -1154,16 +1085,16 @@
         <v>41149.26047</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>50679.10708</v>
+        <v>50716.89778</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>49750.05043</v>
+        <v>50045.47042999999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>63115.30768000001</v>
+        <v>64463.90467</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>81840.7157</v>
+        <v>88568.44172</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>121779.91432</v>
@@ -1172,16 +1103,21 @@
         <v>177664.58132</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>245839.26254</v>
+        <v>245883.68177</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>215584.12893</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>217927.81104</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>862413.1629999999</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>18204.71507</v>
@@ -1199,49 +1135,54 @@
         <v>34284.45752</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>52773.69648</v>
+        <v>52775.49648</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>44699.7071</v>
+        <v>46298.62454</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>42931.08865999999</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>64449.25087999999</v>
+        <v>64449.25088</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>78977.68803999999</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>61689.10154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>61723.46702</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>91850.588</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>8024.00451</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>5299.814530000001</v>
+        <v>5299.81453</v>
       </c>
       <c r="E12" s="48" t="n">
         <v>8050.090630000001</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>8236.912859999999</v>
+        <v>8254.04981</v>
       </c>
       <c r="G12" s="48" t="n">
         <v>11968.26787</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>15045.83032</v>
+        <v>15053.58959</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>26547.09788</v>
+        <v>28834.55088</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>18185.72992</v>
@@ -1253,13 +1194,18 @@
         <v>63717.93012</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>20229.69842</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>20257.50504</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>37795.697</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>6661241.81538</v>
@@ -1268,37 +1214,42 @@
         <v>7170676.12295</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>10118941.93453</v>
+        <v>10124991.57653</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>11361860.98513</v>
+        <v>11375325.0136</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>13076147.84259</v>
+        <v>13096440.84672</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>14909119.93203</v>
+        <v>15134609.97314</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>15002054.78721</v>
+        <v>16821388.07733</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>18724397.42978</v>
+        <v>18736851.37686</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>21455866.63934</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>24767818.38493</v>
+        <v>24805828.00051</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>25609525.72506</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>25867702.97132</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>32393280.376</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>5574138.60555</v>
@@ -1307,37 +1258,42 @@
         <v>6115551.04259</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>8788734.945880001</v>
+        <v>8794629.545979999</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>9778046.741290001</v>
+        <v>9790606.07677</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>11157524.36421</v>
+        <v>11175053.04788</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>12802940.88919</v>
+        <v>12993101.54667</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>12717937.45232</v>
+        <v>14196463.40348</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>16073101.47242</v>
+        <v>16083858.21343</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>18500897.46687</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>21293236.38786</v>
+        <v>21328254.14529</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>22114076.70386</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>22346388.41471</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>27222029.671</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>3445290.36765</v>
@@ -1349,73 +1305,83 @@
         <v>5443175.33704</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>6501815.920530001</v>
+        <v>6506407.96557</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>7383125.08795</v>
+        <v>7388474.066559999</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>8134720.286809999</v>
+        <v>8148661.773100001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>8077539.326650001</v>
+        <v>8976476.98405</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>9870305.363190001</v>
+        <v>9880092.303109998</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>12434597.73705</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>13825619.80323</v>
+        <v>13838565.71051</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>14513200.74427</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>14628845.63163</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>18549305.512</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>811547.4620500001</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>920000.1644</v>
+        <v>920000.1643999999</v>
       </c>
       <c r="E16" s="48" t="n">
         <v>1620077.89356</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1615740.68542</v>
+        <v>1617630.48889</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1774949.85823</v>
+        <v>1775565.57299</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1875377.36701</v>
+        <v>1878672.71205</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>2217915.91831</v>
+        <v>2279793.37648</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>2474661.16722</v>
+        <v>2475268.1011</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>3153692.52312</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>3905793.21844</v>
+        <v>3923552.72528</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>3393936.00537</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>3475970.84424</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>4890282.209</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>1300534.87681</v>
@@ -1424,37 +1390,42 @@
         <v>1220369.87104</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>1699245.31624</v>
+        <v>1705139.91634</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1640149.42059</v>
+        <v>1646226.90756</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1971550.61615</v>
+        <v>1983114.60645</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>2753973.75915</v>
+        <v>2926827.6343</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>2374925.13107</v>
+        <v>2890633.04374</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>3672093.71852</v>
+        <v>3672102.45928</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>2854980.943</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>3480003.559020001</v>
+        <v>3484272.34132</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>4106567.169320001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>4140760.39827</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>3654467.371</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>16765.89904</v>
@@ -1472,28 +1443,33 @@
         <v>27898.80188</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>38869.47622</v>
+        <v>38939.42722</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>47557.07629</v>
+        <v>49559.99921</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>56041.22349</v>
+        <v>56395.34994</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>57626.2637</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>81819.80717</v>
+        <v>81863.36818</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>100372.7849</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>100811.54057</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>127974.579</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>1087103.20983</v>
@@ -1502,76 +1478,86 @@
         <v>1055125.08036</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1330206.98865</v>
+        <v>1330362.03055</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1583814.24384</v>
+        <v>1584718.93683</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1918623.47838</v>
+        <v>1921387.79884</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>2106179.04284</v>
+        <v>2141508.42647</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2284117.334890001</v>
+        <v>2624924.67385</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2651295.95736</v>
+        <v>2652993.16343</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>2954969.17247</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>3474581.99707</v>
+        <v>3477573.85522</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>3495449.0212</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>3521314.55661</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>5171250.705</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>613751.5443099999</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>681576.97977</v>
+        <v>681579.1997699999</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>839617.76364</v>
+        <v>839618.96364</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>990934.60651</v>
+        <v>991300.47815</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1100154.13351</v>
+        <v>1101427.53649</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1188265.07007</v>
+        <v>1204613.30423</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1252115.1136</v>
+        <v>1361231.83548</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1499237.11473</v>
+        <v>1500126.41589</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1710156.35776</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1811318.94888</v>
+        <v>1821511.7319</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1994811.3521</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2039527.12828</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2316161.649</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>2398.35647</v>
@@ -1583,16 +1569,16 @@
         <v>6140.864390000001</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>5814.80929</v>
+        <v>5816.15606</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>13789.06116</v>
+        <v>13794.52361</v>
       </c>
       <c r="H21" s="48" t="n">
         <v>7423.8163</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>4550.18616</v>
+        <v>4551.82976</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>4249.86807</v>
@@ -1601,16 +1587,21 @@
         <v>9778.01859</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>19894.30951</v>
+        <v>19911.97855</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>22810.24136</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>23749.62452</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>32294.492</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>164927.82749</v>
@@ -1622,151 +1613,171 @@
         <v>241296.30093</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>308015.44631</v>
+        <v>308221.25557</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>364213.1645</v>
+        <v>364434.2665</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>367606.04766</v>
+        <v>369158.67534</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>377403.68184</v>
+        <v>421635.01517</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>442046.7496999999</v>
+        <v>442565.99436</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>539144.09285</v>
+        <v>539144.0928499999</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>561029.8051700001</v>
+        <v>561748.91973</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>620562.7607000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>627503.652</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>716355.835</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>446425.36035</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>489427.4757000001</v>
+        <v>489429.6957</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>592180.5983200001</v>
+        <v>592181.7983200001</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>677104.3509099999</v>
+        <v>677263.06652</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>722151.9078500001</v>
+        <v>723198.7463800001</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>813235.2061100001</v>
+        <v>828030.8125899999</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>870161.2455999999</v>
+        <v>935044.99055</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1052940.49696</v>
+        <v>1053310.55346</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>1161234.24632</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1230394.8342</v>
+        <v>1239850.83362</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1351438.35004</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1388273.85176</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1567511.322</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>473351.66552</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>373548.10059</v>
+        <v>373545.88059</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>490589.22501</v>
+        <v>490743.06691</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>592879.6373300001</v>
+        <v>593418.4586799999</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>818469.34487</v>
+        <v>819960.26235</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>917913.97277</v>
+        <v>936895.1222400001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1032002.22129</v>
+        <v>1263692.83837</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1152058.84263</v>
+        <v>1152866.74754</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>1244812.81471</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1663263.04819</v>
+        <v>1656062.12332</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1500637.6691</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1481787.42833</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>2855089.056</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>335931.8447000001</v>
+        <v>335931.8447</v>
       </c>
       <c r="D25" s="47" t="n">
         <v>338427.47189</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>353473.52258</v>
+        <v>353494.07868</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>302425.56226</v>
+        <v>302386.25666</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>567488.8898299999</v>
+        <v>567830.78486</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>542738.7612599999</v>
+        <v>545323.17411</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>809265.4792300001</v>
+        <v>1000245.78995</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1016335.42971</v>
+        <v>1016734.50577</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>1106788.32913</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>2411543.56452</v>
+        <v>2429388.76513</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1589662.99442</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1640845.53837</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>2863403.019</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>25670.574</v>
@@ -1787,7 +1798,7 @@
         <v>36538.19303</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>78706.57024</v>
+        <v>104783.6443</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>42781.91746</v>
@@ -1796,19 +1807,24 @@
         <v>9447.574719999999</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>29362.81558</v>
+        <v>37322.48225</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>79220.36541000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>112053.99041</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>126734.882</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>4000.097519999999</v>
+        <v>4000.09752</v>
       </c>
       <c r="D27" s="48" t="n">
         <v>960.82438</v>
@@ -1826,7 +1842,7 @@
         <v>1835.62274</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>5602.16142</v>
+        <v>5667.862610000001</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>815.98709</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>25060.64871</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>904.378</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>23556.37601</v>
@@ -1856,34 +1877,39 @@
         <v>24438.33838</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>24790.66805</v>
+        <v>24791.08698</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>25772.32455</v>
+        <v>25850.45142</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>35762.17871</v>
+        <v>35762.23033</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>45175.83602</v>
+        <v>48319.1654</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>55785.07122</v>
+        <v>55785.40565</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>69808.43640999999</v>
+        <v>69808.43641000001</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>101433.26087</v>
+        <v>105993.64427</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>98461.84534</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>105978.00761</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>93336.13800000001</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>386.69262</v>
@@ -1892,22 +1918,22 @@
         <v>651.9570200000001</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>548.61153</v>
+        <v>548.6115299999999</v>
       </c>
       <c r="F29" s="48" t="n">
         <v>240.77169</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>53.33931999999999</v>
+        <v>53.33932</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>3231.178159999999</v>
+        <v>3231.17816</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>3692.42327</v>
+        <v>3692.69603</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>965.14294</v>
+        <v>965.15683</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>155.88134</v>
@@ -1916,13 +1942,18 @@
         <v>1918.4738</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>28968.02728</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>28969.53127</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>1165.488</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>5845.51888</v>
@@ -1934,16 +1965,16 @@
         <v>4986.57433</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>6605.84121</v>
+        <v>6605.841210000001</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>5043.72942</v>
+        <v>5119.91146</v>
       </c>
       <c r="H30" s="48" t="n">
         <v>6258.59013</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>5559.41014</v>
+        <v>9828.644340000001</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>7482.26558</v>
@@ -1952,16 +1983,21 @@
         <v>6807.741660000001</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>8756.615019999999</v>
+        <v>8762.52591</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>24390.85725</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>24471.76814</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>17645.638</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>797.2692</v>
@@ -1982,7 +2018,7 @@
         <v>1470.18626</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>924.84474</v>
+        <v>940.49684</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>1289.87527</v>
@@ -1991,16 +2027,21 @@
         <v>1899.36836</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>2253.89882</v>
+        <v>2254.12384</v>
       </c>
       <c r="M31" s="48" t="n">
         <v>2286.3304</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>7315.199</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>240554.04894</v>
@@ -2009,37 +2050,42 @@
         <v>190633.30773</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>245366.1609</v>
+        <v>245386.717</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>198634.69045</v>
+        <v>198638.73988</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>320918.48248</v>
+        <v>320961.02345</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>383834.9004700001</v>
+        <v>386401.56351</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>618805.7401800001</v>
+        <v>761915.29339</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>797986.8210100001</v>
+        <v>798224.67203</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>920688.79097</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>2134819.14925</v>
+        <v>2134945.68267</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>1187603.83285</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>1193549.48071</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>2443714.171</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>44.44256</v>
@@ -2060,7 +2106,7 @@
         <v>1316.10373</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>1355.44533</v>
+        <v>1618.19762</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>1743.2634</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>2303.06922</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>1655.103</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>238.33135</v>
@@ -2099,7 +2150,7 @@
         <v>54.11523</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>10.67545</v>
+        <v>14.28534</v>
       </c>
       <c r="J34" s="48" t="n">
         <v>40.96566000000001</v>
@@ -2113,50 +2164,60 @@
       <c r="M34" s="48" t="n">
         <v>16.86676</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>30.238</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>34838.49361999999</v>
+        <v>34838.49362000001</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>40565.65357</v>
+        <v>40565.65356999999</v>
       </c>
       <c r="E35" s="48" t="n">
         <v>44491.6818</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>44386.81022</v>
+        <v>44343.03626</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>55646.09952999999</v>
+        <v>55791.14468</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>72437.69280000002</v>
+        <v>72455.39099</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>49432.37244</v>
+        <v>63465.50408</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>107444.12008</v>
+        <v>107604.9968</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>96323.76161999999</v>
+        <v>96323.76162</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>128903.17504</v>
+        <v>134095.65625</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>141351.1512</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>146155.84514</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>170901.784</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>278398.60936</v>
@@ -2165,37 +2226,42 @@
         <v>201537.08058</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>315080.45571</v>
+        <v>315095.35681</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>231290.7697</v>
+        <v>231436.6960800001</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>477358.65518</v>
+        <v>477361.64478</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>450871.1304799999</v>
+        <v>456320.96407</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>697759.45067</v>
+        <v>871925.71583</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>865253.3624199999</v>
+        <v>866124.1510999999</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>1115304.87363</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>2518480.03586</v>
+        <v>2519404.4034</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1343466.52276</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1353046.13172</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>2492030.916</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>1356.07779</v>
@@ -2216,7 +2282,7 @@
         <v>4299.6548</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>2985.26721</v>
+        <v>3092.90389</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>2058.68011</v>
@@ -2225,16 +2291,21 @@
         <v>2160.23423</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>4111.17022</v>
+        <v>4111.63948</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>6217.284890000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>6685.853710000001</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>12287.11</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>19421.1908</v>
@@ -2246,19 +2317,19 @@
         <v>28080.83819</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>38051.22079</v>
+        <v>38192.92079</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>39334.19145999999</v>
+        <v>39334.19146</v>
       </c>
       <c r="H38" s="48" t="n">
         <v>41044.42184</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>39095.90970999999</v>
+        <v>40130.5221</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>43676.57737000001</v>
+        <v>43676.57737</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>130154.50186</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>53762.1198</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>28927.179</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>193.38275</v>
@@ -2282,7 +2358,7 @@
         <v>115.69289</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>85.57679</v>
+        <v>85.57678999999999</v>
       </c>
       <c r="F39" s="48" t="n">
         <v>213.50289</v>
@@ -2297,7 +2373,7 @@
         <v>79.1827</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>535.85427</v>
+        <v>553.92112</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>281.4876</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>1.55433</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>62.098</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>250888.74558</v>
@@ -2321,37 +2402,42 @@
         <v>173408.48646</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>265682.65659</v>
+        <v>265697.55769</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>176476.04792</v>
+        <v>176480.2743</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>410326.9243900001</v>
+        <v>410329.9139</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>386602.07193</v>
+        <v>391688.53374</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>639700.21431</v>
+        <v>807306.2293199999</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>793119.49216</v>
+        <v>793897.83063</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>945846.9945700001</v>
+        <v>945846.99457</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>2337960.03138</v>
+        <v>2338642.71733</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>1224625.09418</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>1231861.28875</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>2400419.351</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>20.57348</v>
@@ -2372,7 +2458,7 @@
         <v>821.09276</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>1243.43621</v>
+        <v>1813.2256</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>273.46467</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>1147.50627</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>1027.871</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>40.52363</v>
@@ -2399,7 +2490,7 @@
         <v>130.07548</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>2543.527880000001</v>
+        <v>2543.52788</v>
       </c>
       <c r="F42" s="48" t="n">
         <v>72.26858</v>
@@ -2414,7 +2505,7 @@
         <v>16.3046</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>17.25345</v>
+        <v>50.34261</v>
       </c>
       <c r="K42" s="48" t="n">
         <v>57.86068</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>23.2892</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>20.369</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>6478.11533</v>
@@ -2444,31 +2540,36 @@
         <v>14266.34661</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>24400.47555</v>
+        <v>24400.47564</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>18015.81589</v>
+        <v>18379.18767</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>14639.13593</v>
+        <v>19487.34762</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>25572.04039</v>
+        <v>25613.33458999999</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>36017.25641</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>63475.21995000001</v>
+        <v>63716.43228</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>57689.67408999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>59564.51966000001</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>49286.938</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>144961.09836</v>
@@ -2480,34 +2581,39 @@
         <v>173150.2951</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>192982.33496</v>
+        <v>192982.44053</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>229883.41593</v>
+        <v>230222.8422</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>282780.94289</v>
+        <v>285201.06472</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>270392.8126599999</v>
+        <v>365906.5731699999</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>360337.15996</v>
+        <v>360345.6436</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>537806.0882999999</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>749795.88473</v>
+        <v>749962.61246</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>767609.5365899999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>771754.6117799999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>937024.216</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>132371.13474</v>
@@ -2519,34 +2625,39 @@
         <v>164190.21693</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>182410.9932</v>
+        <v>182411.09877</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>208870.12167</v>
+        <v>209209.54794</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>254382.24059</v>
+        <v>256802.36242</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>254093.17284</v>
+        <v>313135.31509</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>331752.20713</v>
+        <v>331760.69077</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>489984.27592</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>675756.10463</v>
+        <v>675922.35263</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>688497.34937</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>692525.8043</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>847170.7830000001</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>12589.96362</v>
@@ -2567,7 +2678,7 @@
         <v>28398.7023</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>16299.63982</v>
+        <v>52771.25808</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>28584.95283</v>
@@ -2576,58 +2687,68 @@
         <v>47821.81238</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>74039.78009999999</v>
+        <v>74040.25983</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>79112.18721999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>79228.80747999999</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>89853.433</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>385923.8025</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>396518.57973</v>
+        <v>396516.35973</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>355831.99678</v>
+        <v>355991.49368</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>471032.09493</v>
+        <v>471385.57873</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>678716.16359</v>
+        <v>680206.5602300001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>727000.6606600001</v>
+        <v>740696.2675599999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>873115.4371900001</v>
+        <v>1026106.33932</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>942803.74996</v>
+        <v>943131.45861</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>698490.1819099999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>806530.6921200001</v>
+        <v>816083.87259</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>979224.6041700001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>997832.2232</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>2289436.943</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>60829.30028999999</v>
+        <v>60829.30029000001</v>
       </c>
       <c r="D48" s="47" t="n">
         <v>85459.12255</v>
@@ -2636,37 +2757,42 @@
         <v>75357.48784</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>77152.5511</v>
+        <v>77152.55110999999</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>85498.28336999999</v>
+        <v>85535.74334999999</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>82381.21639</v>
+        <v>83165.92336</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>148051.6092</v>
+        <v>161776.76933</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>162792.0842</v>
+        <v>162897.14537</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>200038.96528</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>192132.75214</v>
+        <v>192254.2928</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>240607.6876</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>243313.01712</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>250694.01</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>7455.540639999999</v>
+        <v>7455.54064</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>18982.52502</v>
@@ -2684,25 +2810,30 @@
         <v>2972.59348</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>5759.43803</v>
+        <v>6984.397599999999</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>4262.19766</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>4842.456579999999</v>
+        <v>4842.45658</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>8083.532839999999</v>
+        <v>8083.53284</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>4273.95627</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>4277.076950000001</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>8274.904</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>53373.75965</v>
@@ -2714,34 +2845,39 @@
         <v>74197.11665000001</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>73590.59667999999</v>
+        <v>73590.59668999999</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>80745.31806000001</v>
+        <v>80782.77803999999</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>79408.62290999999</v>
+        <v>80193.32987999999</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>142292.17117</v>
+        <v>154792.37173</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>158529.88654</v>
+        <v>158634.94771</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>195196.5087</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>184049.2193</v>
+        <v>184170.75996</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>236333.73133</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>239035.94017</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>242419.106</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>48166.76162</v>
@@ -2753,46 +2889,51 @@
         <v>377593.91605</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>90321.84385999999</v>
+        <v>90332.48349</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>98957.88831000001</v>
+        <v>98962.03076000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>218457.30999</v>
+        <v>218893.52893</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>93556.69443</v>
+        <v>131983.76441</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>325544.46086</v>
+        <v>326003.71081</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>147603.37201</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>313020.50602</v>
+        <v>313704.97025</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>227456.91819</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>229894.40456</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>179401.173</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>4226.55282</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>6524.06721</v>
+        <v>6524.067210000001</v>
       </c>
       <c r="E52" s="48" t="n">
         <v>9819.431849999999</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>8152.74039</v>
+        <v>8152.740390000001</v>
       </c>
       <c r="G52" s="48" t="n">
         <v>12064.23417</v>
@@ -2801,25 +2942,30 @@
         <v>10789.70011</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>7807.457719999999</v>
+        <v>22739.15311</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>14817.92645</v>
+        <v>14831.27741</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>27722.17011</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>32187.18438</v>
+        <v>32259.66361</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>7874.386500000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>8136.25169</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>13067.339</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>6611.088729999999</v>
@@ -2831,16 +2977,16 @@
         <v>9686.31113</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>15386.92279</v>
+        <v>15386.95819</v>
       </c>
       <c r="G53" s="48" t="n">
         <v>13255.38755</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>13597.50351</v>
+        <v>13600.29359</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>11709.21208</v>
+        <v>13264.90196</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>10720.8482</v>
@@ -2849,16 +2995,21 @@
         <v>14917.22959</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>20748.45914</v>
+        <v>20979.21172</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>51090.31341</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>51345.27546000001</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>18666.293</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>37329.12007</v>
@@ -2870,73 +3021,83 @@
         <v>358088.17307</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>66782.18067999999</v>
+        <v>66792.78491</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>73638.26659</v>
+        <v>73642.40904000001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>194070.10637</v>
+        <v>194503.53523</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>74040.02463</v>
+        <v>95979.70934</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>300005.68621</v>
+        <v>300451.5852</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>104963.97231</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>260084.8625</v>
+        <v>260466.09492</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>168492.21828</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>170412.87741</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>147667.541</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>398586.34117</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>418312.8628700001</v>
+        <v>418310.64287</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>53595.56857</v>
+        <v>53755.06546999999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>457862.80217</v>
+        <v>458205.64635</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>665256.55865</v>
+        <v>666780.27282</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>590924.56706</v>
+        <v>604968.6619900001</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>927610.3519599999</v>
+        <v>1055899.34424</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>780051.3732999999</v>
+        <v>780024.8931699999</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>750925.7751800001</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>685642.93824</v>
+        <v>694633.1951400001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>992375.37358</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1011250.83576</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>2360729.78</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>77941.24662999999</v>
@@ -2945,73 +3106,81 @@
         <v>71878.80336000001</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>73175.05699</v>
+        <v>73206.95637</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>91978.20367999999</v>
+        <v>92057.19644</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>117216.48344</v>
+        <v>117525.28016</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>128948.30229</v>
+        <v>131827.13879</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>160492.26434</v>
+        <v>179639.7447</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>170839.29512</v>
+        <v>170893.32326</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>178734.32347</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>199793.27404</v>
+        <v>201202.29567</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>230506.80051</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>232120.96679</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>441276.157</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>320645.09454</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>346434.05951</v>
+        <v>346431.83951</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-19579.48842</v>
+        <v>-19451.89089999999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>365884.59849</v>
+        <v>366148.44991</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>548040.07521</v>
+        <v>549254.99266</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>461976.26477</v>
+        <v>473141.5232</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>767118.0876199999</v>
+        <v>876259.59954</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>609212.0781800001</v>
+        <v>609131.5699100001</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>572191.4517100001</v>
+        <v>572191.4517099999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>485849.6642000001</v>
+        <v>493430.8994699999</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>761868.57307</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>779129.8689700001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1919453.623</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>3744</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>3812</v>
+        <v>3813</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>3917</v>
+        <v>3918</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>3820</v>
+        <v>3826</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>3783</v>
+        <v>3794</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>3793</v>
+        <v>3806</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>3752</v>
+        <v>3800</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>4026</v>
+        <v>4043</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>4173</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>3828</v>
+        <v>4189</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>3784</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>4235</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>4425</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>